--- a/constructive_method/solutions/solution_40_homogeneous_randomized.xlsx
+++ b/constructive_method/solutions/solution_40_homogeneous_randomized.xlsx
@@ -460,11 +460,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Z1</t>
+          <t>Z2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>513.7044869715645</v>
+        <v>515.5313331170938</v>
       </c>
     </row>
   </sheetData>
@@ -501,7 +501,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pedido_15</t>
+          <t>Pedido_16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pedido_33</t>
+          <t>Pedido_5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -525,7 +525,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pedido_40</t>
+          <t>Pedido_15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -537,7 +537,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pedido_39</t>
+          <t>Pedido_28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -549,48 +549,48 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pedido_35</t>
+          <t>Pedido_37</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S022</t>
+          <t>S002</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pedido_7</t>
+          <t>Pedido_1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S002</t>
+          <t>S022</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pedido_37</t>
+          <t>Pedido_20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S032</t>
+          <t>S012</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pedido_16</t>
+          <t>Pedido_24</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S012</t>
+          <t>S032</t>
         </is>
       </c>
     </row>
@@ -609,31 +609,31 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pedido_28</t>
+          <t>Pedido_33</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S033</t>
+          <t>S003</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pedido_26</t>
+          <t>Pedido_40</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S003</t>
+          <t>S033</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Pedido_17</t>
+          <t>Pedido_39</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -645,7 +645,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pedido_5</t>
+          <t>Pedido_22</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pedido_13</t>
+          <t>Pedido_36</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pedido_36</t>
+          <t>Pedido_18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -681,151 +681,151 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pedido_27</t>
+          <t>Pedido_2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>S025</t>
+          <t>S014</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pedido_19</t>
+          <t>Pedido_35</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>S014</t>
+          <t>S025</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pedido_9</t>
+          <t>Pedido_38</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>S035</t>
+          <t>S005</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pedido_18</t>
+          <t>Pedido_6</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S005</t>
+          <t>S015</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pedido_12</t>
+          <t>Pedido_34</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S026</t>
+          <t>S035</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pedido_25</t>
+          <t>Pedido_7</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>S015</t>
+          <t>S026</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pedido_10</t>
+          <t>Pedido_26</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>S036</t>
+          <t>S006</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pedido_3</t>
+          <t>Pedido_19</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>S006</t>
+          <t>S036</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Pedido_11</t>
+          <t>Pedido_9</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S027</t>
+          <t>S016</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pedido_20</t>
+          <t>Pedido_11</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S016</t>
+          <t>S007</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Pedido_4</t>
+          <t>Pedido_29</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S037</t>
+          <t>S027</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Pedido_29</t>
+          <t>Pedido_23</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S007</t>
+          <t>S037</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Pedido_1</t>
+          <t>Pedido_10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -837,7 +837,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pedido_38</t>
+          <t>Pedido_27</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -849,7 +849,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pedido_34</t>
+          <t>Pedido_31</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -861,7 +861,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pedido_2</t>
+          <t>Pedido_17</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -873,7 +873,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Pedido_31</t>
+          <t>Pedido_32</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Pedido_6</t>
+          <t>Pedido_25</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -897,7 +897,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Pedido_23</t>
+          <t>Pedido_30</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -909,31 +909,31 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pedido_24</t>
+          <t>Pedido_4</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S019</t>
+          <t>S039</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pedido_30</t>
+          <t>Pedido_8</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S039</t>
+          <t>S019</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pedido_32</t>
+          <t>Pedido_13</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -945,7 +945,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Pedido_22</t>
+          <t>Pedido_14</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -957,7 +957,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Pedido_14</t>
+          <t>Pedido_3</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Pedido_8</t>
+          <t>Pedido_12</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513.7044869715645</v>
+        <v>514.9116823440372</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>511.9899070169749</v>
+        <v>515.5313331170938</v>
       </c>
     </row>
   </sheetData>

--- a/constructive_method/solutions/solution_40_homogeneous_randomized.xlsx
+++ b/constructive_method/solutions/solution_40_homogeneous_randomized.xlsx
@@ -460,11 +460,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Z2</t>
+          <t>Z1</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>515.5313331170938</v>
+        <v>514.3404476159586</v>
       </c>
     </row>
   </sheetData>
@@ -501,7 +501,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Pedido_16</t>
+          <t>Pedido_28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pedido_5</t>
+          <t>Pedido_6</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -525,31 +525,31 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Pedido_15</t>
+          <t>Pedido_31</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S031</t>
+          <t>S011</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pedido_28</t>
+          <t>Pedido_17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S011</t>
+          <t>S031</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pedido_37</t>
+          <t>Pedido_1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -561,7 +561,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Pedido_1</t>
+          <t>Pedido_24</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Pedido_20</t>
+          <t>Pedido_22</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pedido_24</t>
+          <t>Pedido_5</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -597,36 +597,36 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pedido_21</t>
+          <t>Pedido_36</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S023</t>
+          <t>S003</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Pedido_33</t>
+          <t>Pedido_38</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S003</t>
+          <t>S023</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Pedido_40</t>
+          <t>Pedido_15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>S033</t>
+          <t>S013</t>
         </is>
       </c>
     </row>
@@ -638,14 +638,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S013</t>
+          <t>S033</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Pedido_22</t>
+          <t>Pedido_26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -657,7 +657,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pedido_36</t>
+          <t>Pedido_20</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -669,7 +669,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Pedido_18</t>
+          <t>Pedido_4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Pedido_2</t>
+          <t>Pedido_16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Pedido_35</t>
+          <t>Pedido_12</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -705,7 +705,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pedido_38</t>
+          <t>Pedido_18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -717,31 +717,31 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pedido_6</t>
+          <t>Pedido_35</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>S015</t>
+          <t>S035</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pedido_34</t>
+          <t>Pedido_9</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>S035</t>
+          <t>S015</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Pedido_7</t>
+          <t>Pedido_11</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -753,7 +753,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Pedido_26</t>
+          <t>Pedido_14</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -765,7 +765,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pedido_19</t>
+          <t>Pedido_7</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -777,7 +777,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Pedido_9</t>
+          <t>Pedido_3</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -789,79 +789,79 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pedido_11</t>
+          <t>Pedido_2</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S007</t>
+          <t>S027</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Pedido_29</t>
+          <t>Pedido_34</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>S027</t>
+          <t>S007</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Pedido_23</t>
+          <t>Pedido_25</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S037</t>
+          <t>S017</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Pedido_10</t>
+          <t>Pedido_27</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>S017</t>
+          <t>S037</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pedido_27</t>
+          <t>Pedido_33</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S028</t>
+          <t>S008</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pedido_31</t>
+          <t>Pedido_21</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S008</t>
+          <t>S028</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Pedido_17</t>
+          <t>Pedido_19</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -885,7 +885,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Pedido_25</t>
+          <t>Pedido_40</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -909,24 +909,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pedido_4</t>
+          <t>Pedido_23</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S039</t>
+          <t>S019</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Pedido_8</t>
+          <t>Pedido_10</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S019</t>
+          <t>S039</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Pedido_14</t>
+          <t>Pedido_8</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -957,24 +957,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Pedido_3</t>
+          <t>Pedido_37</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S020</t>
+          <t>S040</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Pedido_12</t>
+          <t>Pedido_29</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S040</t>
+          <t>S020</t>
         </is>
       </c>
     </row>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>514.9116823440372</v>
+        <v>514.3404476159586</v>
       </c>
     </row>
     <row r="3">
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>515.5313331170938</v>
+        <v>512.6677316466646</v>
       </c>
     </row>
   </sheetData>
